--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,151 +64,151 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>care</t>
@@ -1015,10 +1015,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1247,7 +1247,7 @@
         <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1297,7 +1297,7 @@
         <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1347,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1397,7 +1397,7 @@
         <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1447,7 +1447,7 @@
         <v>132</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>0.9310344827586207</v>
@@ -1476,28 +1476,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09395973154362416</v>
+        <v>0.0145602795573675</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>205</v>
+        <v>451</v>
       </c>
       <c r="E11">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F11">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>135</v>
+        <v>1692</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.9166666666666666</v>
@@ -1526,28 +1526,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0145602795573675</v>
+        <v>0.01372628179249092</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>451</v>
+        <v>664</v>
       </c>
       <c r="E12">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1692</v>
+        <v>2443</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0.8947368421052632</v>
@@ -1576,28 +1576,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01372628179249092</v>
+        <v>0.005724508050089445</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>664</v>
+        <v>422</v>
       </c>
       <c r="E13">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F13">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2443</v>
+        <v>2779</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0.8888888888888888</v>
@@ -1622,32 +1622,8 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.005724508050089445</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>422</v>
-      </c>
-      <c r="E14">
-        <v>0.96</v>
-      </c>
-      <c r="F14">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2779</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1673,7 +1649,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>0.8582677165354331</v>
@@ -1699,7 +1675,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>0.8454545454545455</v>
@@ -1725,7 +1701,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
         <v>0.84</v>
@@ -1751,7 +1727,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <v>0.825</v>
@@ -1777,7 +1753,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
         <v>0.8181818181818182</v>
@@ -1803,7 +1779,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.8076923076923077</v>
@@ -1829,7 +1805,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>0.7936507936507936</v>
@@ -1855,7 +1831,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>0.7872340425531915</v>
@@ -1881,7 +1857,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>0.7857142857142857</v>
@@ -1907,7 +1883,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0.7784810126582279</v>
@@ -1933,7 +1909,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>0.7407407407407407</v>
@@ -1959,7 +1935,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>0.73</v>
@@ -1985,7 +1961,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.7192982456140351</v>
@@ -2011,7 +1987,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>0.7163120567375887</v>
@@ -2037,42 +2013,42 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6956521739130435</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N30">
         <v>0.9399999999999999</v>
@@ -2084,47 +2060,47 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6888888888888889</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6818181818181818</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2136,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>0.6764705882352942</v>
@@ -2167,7 +2143,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>0.6538461538461539</v>
@@ -2193,7 +2169,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
         <v>0.6274509803921569</v>
@@ -2219,7 +2195,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>0.625</v>
@@ -2245,7 +2221,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>0.6086956521739131</v>
@@ -2271,7 +2247,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>0.6</v>
@@ -2297,7 +2273,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
         <v>0.6</v>
@@ -2323,7 +2299,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
         <v>0.5952380952380952</v>
@@ -2349,28 +2325,28 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5858895705521472</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L41">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2378,25 +2354,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5735294117647058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2407,22 +2383,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2430,25 +2406,25 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5714285714285714</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2456,25 +2432,25 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5684210526315789</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2482,25 +2458,25 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2508,25 +2484,25 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.5625</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="N47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -5235,7 +5211,7 @@
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K152">
         <v>0.2050113895216401</v>
@@ -5287,7 +5263,7 @@
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K154">
         <v>0.2011331444759207</v>
@@ -6093,7 +6069,7 @@
     </row>
     <row r="185" spans="10:17">
       <c r="J185" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K185">
         <v>0.1274725274725275</v>
